--- a/outputGWLR.xlsx
+++ b/outputGWLR.xlsx
@@ -431,16 +431,16 @@
         <v>-0.02235453833956078</v>
       </c>
       <c r="G2">
-        <v>0.9997831352061603</v>
+        <v>0.3456978545879902</v>
       </c>
       <c r="H2">
-        <v>0.991757765558772</v>
+        <v>0.6690578885857618</v>
       </c>
       <c r="I2">
-        <v>0.982571690020761</v>
+        <v>0.03803383978683236</v>
       </c>
       <c r="J2">
-        <v>0.982571690020761</v>
+        <v>0.6823729878913984</v>
       </c>
     </row>
     <row r="3">
@@ -465,16 +465,16 @@
         <v>-0.01983497473640439</v>
       </c>
       <c r="G3">
-        <v>0.9998488536740204</v>
+        <v>0.5504995297923967</v>
       </c>
       <c r="H3">
-        <v>0.9994961794328652</v>
+        <v>0.9793660377857828</v>
       </c>
       <c r="I3">
-        <v>0.9991276146741774</v>
+        <v>0.9205174981977188</v>
       </c>
       <c r="J3">
-        <v>0.9991276146741774</v>
+        <v>0.7316293988571041</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>-0.02983544975625702</v>
       </c>
       <c r="G4">
-        <v>0.999768089645029</v>
+        <v>0.3219324966601267</v>
       </c>
       <c r="H4">
-        <v>0.9981922450413844</v>
+        <v>0.9327929009996603</v>
       </c>
       <c r="I4">
-        <v>0.985659347327697</v>
+        <v>0.1412053073656245</v>
       </c>
       <c r="J4">
-        <v>0.985659347327697</v>
+        <v>0.5998464014375003</v>
       </c>
     </row>
     <row r="5">
@@ -533,16 +533,16 @@
         <v>-0.0404150646123219</v>
       </c>
       <c r="G5">
-        <v>0.9996603888609233</v>
+        <v>0.1346251453961608</v>
       </c>
       <c r="H5">
-        <v>0.9910913552969355</v>
+        <v>0.6600871765079324</v>
       </c>
       <c r="I5">
-        <v>0.9753370555558976</v>
+        <v>0.00983810039319684</v>
       </c>
       <c r="J5">
-        <v>0.9753370555558976</v>
+        <v>0.495737481300715</v>
       </c>
     </row>
     <row r="6">
@@ -567,16 +567,16 @@
         <v>-0.0177569909071687</v>
       </c>
       <c r="G6">
-        <v>0.9999063704578111</v>
+        <v>0.6997570140662175</v>
       </c>
       <c r="H6">
-        <v>0.9995650131702667</v>
+        <v>0.9814910988927685</v>
       </c>
       <c r="I6">
-        <v>0.9972389468051282</v>
+        <v>0.7453699943942689</v>
       </c>
       <c r="J6">
-        <v>0.9972389468051282</v>
+        <v>0.7472784005292794</v>
       </c>
     </row>
     <row r="7">
@@ -601,16 +601,16 @@
         <v>-0.02532098915789094</v>
       </c>
       <c r="G7">
-        <v>0.9997626028926269</v>
+        <v>0.3029578754790534</v>
       </c>
       <c r="H7">
-        <v>0.9921630170758533</v>
+        <v>0.6869226272729136</v>
       </c>
       <c r="I7">
-        <v>0.9818670911348615</v>
+        <v>0.03348905350459958</v>
       </c>
       <c r="J7">
-        <v>0.9818670911348615</v>
+        <v>0.6490924391622428</v>
       </c>
     </row>
     <row r="8">
@@ -635,16 +635,16 @@
         <v>-0.02120203105039789</v>
       </c>
       <c r="G8">
-        <v>0.999895414358031</v>
+        <v>0.6683670254373272</v>
       </c>
       <c r="H8">
-        <v>0.9993185868093588</v>
+        <v>0.9716482166859588</v>
       </c>
       <c r="I8">
-        <v>0.9980920435772723</v>
+        <v>0.8255100735033536</v>
       </c>
       <c r="J8">
-        <v>0.9980920435772723</v>
+        <v>0.703020858548334</v>
       </c>
     </row>
     <row r="9">
@@ -669,16 +669,16 @@
         <v>-0.03503737510427402</v>
       </c>
       <c r="G9">
-        <v>0.9997116752762727</v>
+        <v>0.2106472180082479</v>
       </c>
       <c r="H9">
-        <v>0.9952992975267667</v>
+        <v>0.8182299992858565</v>
       </c>
       <c r="I9">
-        <v>0.9803873680577144</v>
+        <v>0.03688480397068065</v>
       </c>
       <c r="J9">
-        <v>0.9803873680577144</v>
+        <v>0.5490695158825556</v>
       </c>
     </row>
     <row r="10">
@@ -703,16 +703,16 @@
         <v>-0.03437433780317273</v>
       </c>
       <c r="G10">
-        <v>0.9997233250782541</v>
+        <v>0.227634365468109</v>
       </c>
       <c r="H10">
-        <v>0.9959269890048792</v>
+        <v>0.8458518364432146</v>
       </c>
       <c r="I10">
-        <v>0.9817006933975682</v>
+        <v>0.05866661511106516</v>
       </c>
       <c r="J10">
-        <v>0.9817006933975682</v>
+        <v>0.5502506621922305</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         <v>-0.03758886805869412</v>
       </c>
       <c r="G11">
-        <v>0.9996887418177323</v>
+        <v>0.195731171089076</v>
       </c>
       <c r="H11">
-        <v>0.991479260060895</v>
+        <v>0.669836378160481</v>
       </c>
       <c r="I11">
-        <v>0.9772480068708542</v>
+        <v>0.01349502553611536</v>
       </c>
       <c r="J11">
-        <v>0.9772480068708542</v>
+        <v>0.5316559034259111</v>
       </c>
     </row>
     <row r="12">
@@ -771,16 +771,16 @@
         <v>-0.02213033999581704</v>
       </c>
       <c r="G12">
-        <v>0.999978887926215</v>
+        <v>0.9302845321808481</v>
       </c>
       <c r="H12">
-        <v>0.999736192391179</v>
+        <v>0.9894757169420907</v>
       </c>
       <c r="I12">
-        <v>0.9961509352041167</v>
+        <v>0.6659248276581892</v>
       </c>
       <c r="J12">
-        <v>0.9961509352041167</v>
+        <v>0.6868482723185787</v>
       </c>
     </row>
     <row r="13">
@@ -805,16 +805,16 @@
         <v>-0.03874468026131578</v>
       </c>
       <c r="G13">
-        <v>0.99968751607502</v>
+        <v>0.172633453877005</v>
       </c>
       <c r="H13">
-        <v>0.9933936477741286</v>
+        <v>0.7550436863170003</v>
       </c>
       <c r="I13">
-        <v>0.9782383810030331</v>
+        <v>0.0296282101785284</v>
       </c>
       <c r="J13">
-        <v>0.9782383810030331</v>
+        <v>0.5074983872283443</v>
       </c>
     </row>
     <row r="14">
@@ -839,16 +839,16 @@
         <v>-0.03995603119028857</v>
       </c>
       <c r="G14">
-        <v>0.9996812587187547</v>
+        <v>0.1679114427363584</v>
       </c>
       <c r="H14">
-        <v>0.9926384645051236</v>
+        <v>0.7333886039959332</v>
       </c>
       <c r="I14">
-        <v>0.9775610425546291</v>
+        <v>0.02928687532258836</v>
       </c>
       <c r="J14">
-        <v>0.9775610425546291</v>
+        <v>0.4966982769084307</v>
       </c>
     </row>
     <row r="15">
@@ -873,16 +873,16 @@
         <v>-0.02332241461398771</v>
       </c>
       <c r="G15">
-        <v>0.9998492785811368</v>
+        <v>0.5790574171058024</v>
       </c>
       <c r="H15">
-        <v>0.9985312179768968</v>
+        <v>0.951569959280658</v>
       </c>
       <c r="I15">
-        <v>0.9923071871603424</v>
+        <v>0.4715996288045351</v>
       </c>
       <c r="J15">
-        <v>0.9923071871603424</v>
+        <v>0.6973184704977897</v>
       </c>
     </row>
     <row r="16">
@@ -907,16 +907,16 @@
         <v>-0.03254295570940637</v>
       </c>
       <c r="G16">
-        <v>0.9997372131439748</v>
+        <v>0.2752486504101149</v>
       </c>
       <c r="H16">
-        <v>0.9964007043597205</v>
+        <v>0.8618263046879409</v>
       </c>
       <c r="I16">
-        <v>0.982395610445776</v>
+        <v>0.05993077459826132</v>
       </c>
       <c r="J16">
-        <v>0.982395610445776</v>
+        <v>0.5822604297446271</v>
       </c>
     </row>
     <row r="17">
@@ -941,16 +941,16 @@
         <v>-0.03726401700363899</v>
       </c>
       <c r="G17">
-        <v>0.9996964978218368</v>
+        <v>0.183396443817404</v>
       </c>
       <c r="H17">
-        <v>0.9942315670428878</v>
+        <v>0.7816617693459496</v>
       </c>
       <c r="I17">
-        <v>0.979121271924976</v>
+        <v>0.03191937246798821</v>
       </c>
       <c r="J17">
-        <v>0.979121271924976</v>
+        <v>0.5223291939239685</v>
       </c>
     </row>
     <row r="18">
@@ -975,16 +975,16 @@
         <v>-0.04089423052525587</v>
       </c>
       <c r="G18">
-        <v>0.9996664116498408</v>
+        <v>0.1462114155062986</v>
       </c>
       <c r="H18">
-        <v>0.9916909589946541</v>
+        <v>0.6951618683027681</v>
       </c>
       <c r="I18">
-        <v>0.9760692615259766</v>
+        <v>0.01830849162845445</v>
       </c>
       <c r="J18">
-        <v>0.9760692615259766</v>
+        <v>0.4887774160982894</v>
       </c>
     </row>
     <row r="19">
@@ -1009,16 +1009,16 @@
         <v>-0.0380821963250661</v>
       </c>
       <c r="G19">
-        <v>0.9997099124662121</v>
+        <v>0.2143121130935565</v>
       </c>
       <c r="H19">
-        <v>0.993968037775774</v>
+        <v>0.7859258688180673</v>
       </c>
       <c r="I19">
-        <v>0.9802015495258489</v>
+        <v>0.0579575775582949</v>
       </c>
       <c r="J19">
-        <v>0.9802015495258489</v>
+        <v>0.5146761650772309</v>
       </c>
     </row>
     <row r="20">
@@ -1043,16 +1043,16 @@
         <v>-0.01393449816869086</v>
       </c>
       <c r="G20">
-        <v>0.9999750813319168</v>
+        <v>0.9162944456095404</v>
       </c>
       <c r="H20">
-        <v>0.9954401493862629</v>
+        <v>0.8052475204537707</v>
       </c>
       <c r="I20">
-        <v>0.9917275373551964</v>
+        <v>0.3197560899300904</v>
       </c>
       <c r="J20">
-        <v>0.9917275373551964</v>
+        <v>0.7931981364162311</v>
       </c>
     </row>
     <row r="21">
@@ -1077,16 +1077,16 @@
         <v>-0.02106378949553086</v>
       </c>
       <c r="G21">
-        <v>0.9998401034758202</v>
+        <v>0.5149415614429487</v>
       </c>
       <c r="H21">
-        <v>0.9967253758365761</v>
+        <v>0.8771471793218729</v>
       </c>
       <c r="I21">
-        <v>0.9887280290947678</v>
+        <v>0.2237164016349778</v>
       </c>
       <c r="J21">
-        <v>0.9887280290947678</v>
+        <v>0.7076922783726803</v>
       </c>
     </row>
     <row r="22">
@@ -1111,16 +1111,16 @@
         <v>-0.03805817958014479</v>
       </c>
       <c r="G22">
-        <v>0.9997004294468057</v>
+        <v>0.194447592569544</v>
       </c>
       <c r="H22">
-        <v>0.9939192455616238</v>
+        <v>0.7784882205316135</v>
       </c>
       <c r="I22">
-        <v>0.9794520082688842</v>
+        <v>0.04366902291929085</v>
       </c>
       <c r="J22">
-        <v>0.9794520082688842</v>
+        <v>0.5135104387410638</v>
       </c>
     </row>
     <row r="23">
@@ -1145,16 +1145,16 @@
         <v>-0.01767569464010038</v>
       </c>
       <c r="G23">
-        <v>0.9999889399686145</v>
+        <v>0.9625573026780134</v>
       </c>
       <c r="H23">
-        <v>0.9985017376508367</v>
+        <v>0.9373543816836074</v>
       </c>
       <c r="I23">
-        <v>0.9948656880857032</v>
+        <v>0.5466206718676133</v>
       </c>
       <c r="J23">
-        <v>0.9948656880857032</v>
+        <v>0.7402788332102733</v>
       </c>
     </row>
     <row r="24">
@@ -1179,16 +1179,16 @@
         <v>-0.01536107992795077</v>
       </c>
       <c r="G24">
-        <v>0.9999205250176553</v>
+        <v>0.739213398692107</v>
       </c>
       <c r="H24">
-        <v>0.9941921403853483</v>
+        <v>0.7608176531456917</v>
       </c>
       <c r="I24">
-        <v>0.9895591828230963</v>
+        <v>0.2162103797585497</v>
       </c>
       <c r="J24">
-        <v>0.9895591828230963</v>
+        <v>0.7723873224510879</v>
       </c>
     </row>
     <row r="25">
@@ -1213,16 +1213,16 @@
         <v>-0.02404093504773475</v>
       </c>
       <c r="G25">
-        <v>0.999782641451592</v>
+        <v>0.3498343752480907</v>
       </c>
       <c r="H25">
-        <v>0.9944035517368152</v>
+        <v>0.7793406320737899</v>
       </c>
       <c r="I25">
-        <v>0.9843194152772197</v>
+        <v>0.07287080767553146</v>
       </c>
       <c r="J25">
-        <v>0.9843194152772197</v>
+        <v>0.6669939788211392</v>
       </c>
     </row>
     <row r="26">
@@ -1247,16 +1247,16 @@
         <v>-0.01575349594140757</v>
       </c>
       <c r="G26">
-        <v>0.9999102079415956</v>
+        <v>0.7121505165388995</v>
       </c>
       <c r="H26">
-        <v>0.9988735564861677</v>
+        <v>0.9515820843463938</v>
       </c>
       <c r="I26">
-        <v>0.9967404062311316</v>
+        <v>0.6995293690423288</v>
       </c>
       <c r="J26">
-        <v>0.9967404062311316</v>
+        <v>0.7753805197777201</v>
       </c>
     </row>
     <row r="27">
@@ -1281,16 +1281,16 @@
         <v>-0.01298262579078441</v>
       </c>
       <c r="G27">
-        <v>0.9999719758283615</v>
+        <v>0.9077573800178242</v>
       </c>
       <c r="H27">
-        <v>0.9963588326280853</v>
+        <v>0.8413848519594742</v>
       </c>
       <c r="I27">
-        <v>0.9935052954071234</v>
+        <v>0.4380151553941328</v>
       </c>
       <c r="J27">
-        <v>0.9935052954071234</v>
+        <v>0.8121807598179033</v>
       </c>
     </row>
     <row r="28">
@@ -1315,16 +1315,16 @@
         <v>-0.03541372326050035</v>
       </c>
       <c r="G28">
-        <v>0.9997244702456636</v>
+        <v>0.2325403652097953</v>
       </c>
       <c r="H28">
-        <v>0.9955285671576558</v>
+        <v>0.835521385005335</v>
       </c>
       <c r="I28">
-        <v>0.9817496123513307</v>
+        <v>0.06836571292195022</v>
       </c>
       <c r="J28">
-        <v>0.9817496123513307</v>
+        <v>0.5387884045519014</v>
       </c>
     </row>
     <row r="29">
@@ -1349,16 +1349,16 @@
         <v>-0.04127918641752011</v>
       </c>
       <c r="G29">
-        <v>0.9996508792307433</v>
+        <v>0.1299216597235488</v>
       </c>
       <c r="H29">
-        <v>0.9896277634452013</v>
+        <v>0.6011187281923812</v>
       </c>
       <c r="I29">
-        <v>0.9740597717247503</v>
+        <v>0.005459091986673889</v>
       </c>
       <c r="J29">
-        <v>0.9740597717247503</v>
+        <v>0.4918014989076361</v>
       </c>
     </row>
     <row r="30">
@@ -1383,16 +1383,16 @@
         <v>-0.03380583946170179</v>
       </c>
       <c r="G30">
-        <v>0.9997364309440363</v>
+        <v>0.2536300593021245</v>
       </c>
       <c r="H30">
-        <v>0.9963811953577336</v>
+        <v>0.8657770234505123</v>
       </c>
       <c r="I30">
-        <v>0.9828766852974336</v>
+        <v>0.08321113162924512</v>
       </c>
       <c r="J30">
-        <v>0.9828766852974336</v>
+        <v>0.5552415889667606</v>
       </c>
     </row>
     <row r="31">
@@ -1417,16 +1417,16 @@
         <v>-0.02728546000163792</v>
       </c>
       <c r="G31">
-        <v>0.9997833186956037</v>
+        <v>0.3703317070079241</v>
       </c>
       <c r="H31">
-        <v>0.9989386842199032</v>
+        <v>0.9603523592391494</v>
       </c>
       <c r="I31">
-        <v>0.9866721615079839</v>
+        <v>0.1650153705571809</v>
       </c>
       <c r="J31">
-        <v>0.9866721615079839</v>
+        <v>0.6351719460134211</v>
       </c>
     </row>
     <row r="32">
@@ -1451,16 +1451,16 @@
         <v>-0.03075827419001392</v>
       </c>
       <c r="G32">
-        <v>0.9997600107961029</v>
+        <v>0.3029279063843989</v>
       </c>
       <c r="H32">
-        <v>0.997804467057324</v>
+        <v>0.9181670117638315</v>
       </c>
       <c r="I32">
-        <v>0.9849756525768676</v>
+        <v>0.1232465040219602</v>
       </c>
       <c r="J32">
-        <v>0.9849756525768676</v>
+        <v>0.5890347513307843</v>
       </c>
     </row>
     <row r="33">
@@ -1485,16 +1485,16 @@
         <v>-0.03446673424316638</v>
       </c>
       <c r="G33">
-        <v>0.9997231531233553</v>
+        <v>0.2273727801126418</v>
       </c>
       <c r="H33">
-        <v>0.99589294062842</v>
+        <v>0.8448425313018493</v>
       </c>
       <c r="I33">
-        <v>0.9816869344775645</v>
+        <v>0.05908436194293704</v>
       </c>
       <c r="J33">
-        <v>0.9816869344775645</v>
+        <v>0.5491239372958883</v>
       </c>
     </row>
     <row r="34">
@@ -1519,16 +1519,16 @@
         <v>-0.03939456405428021</v>
       </c>
       <c r="G34">
-        <v>0.9996839411619858</v>
+        <v>0.1694692497903736</v>
       </c>
       <c r="H34">
-        <v>0.9929967656679384</v>
+        <v>0.7433032563937856</v>
       </c>
       <c r="I34">
-        <v>0.9778618223832818</v>
+        <v>0.02917128077965441</v>
       </c>
       <c r="J34">
-        <v>0.9778618223832818</v>
+        <v>0.5015332840587732</v>
       </c>
     </row>
     <row r="35">
@@ -1553,16 +1553,16 @@
         <v>-0.02466916340559541</v>
       </c>
       <c r="G35">
-        <v>0.9998136730458169</v>
+        <v>0.4551852790963165</v>
       </c>
       <c r="H35">
-        <v>0.9997955177880864</v>
+        <v>0.9925894108184776</v>
       </c>
       <c r="I35">
-        <v>0.9889719939504562</v>
+        <v>0.2617398051133132</v>
       </c>
       <c r="J35">
-        <v>0.9889719939504562</v>
+        <v>0.6686139046839627</v>
       </c>
     </row>
     <row r="36">
@@ -1587,16 +1587,16 @@
         <v>-0.03399719755150966</v>
       </c>
       <c r="G36">
-        <v>0.9997244001090417</v>
+        <v>0.2474840090418644</v>
       </c>
       <c r="H36">
-        <v>0.9957093086832276</v>
+        <v>0.8342395034478816</v>
       </c>
       <c r="I36">
-        <v>0.9811959228957483</v>
+        <v>0.04355887313900298</v>
       </c>
       <c r="J36">
-        <v>0.9811959228957483</v>
+        <v>0.5669690691612872</v>
       </c>
     </row>
     <row r="37">
@@ -1621,16 +1621,16 @@
         <v>-0.02076606124906445</v>
       </c>
       <c r="G37">
-        <v>0.9998489551535374</v>
+        <v>0.5405534308934163</v>
       </c>
       <c r="H37">
-        <v>0.9958796522369851</v>
+        <v>0.8446276803371481</v>
       </c>
       <c r="I37">
-        <v>0.9886526636867503</v>
+        <v>0.2172299845135821</v>
       </c>
       <c r="J37">
-        <v>0.9886526636867503</v>
+        <v>0.7101636061702776</v>
       </c>
     </row>
     <row r="38">
@@ -1655,16 +1655,16 @@
         <v>-0.016552853715364</v>
       </c>
       <c r="G38">
-        <v>0.9999697558884433</v>
+        <v>0.8976777851510285</v>
       </c>
       <c r="H38">
-        <v>0.9972897683425992</v>
+        <v>0.8883965354719601</v>
       </c>
       <c r="I38">
-        <v>0.993225232494603</v>
+        <v>0.4274479971077478</v>
       </c>
       <c r="J38">
-        <v>0.993225232494603</v>
+        <v>0.7551512148374986</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>-0.02145668425680267</v>
       </c>
       <c r="G39">
-        <v>0.9997922745504755</v>
+        <v>0.3648641076011551</v>
       </c>
       <c r="H39">
-        <v>0.9929615870498109</v>
+        <v>0.7182221590949862</v>
       </c>
       <c r="I39">
-        <v>0.9839471596880064</v>
+        <v>0.05776877949105871</v>
       </c>
       <c r="J39">
-        <v>0.9839471596880064</v>
+        <v>0.6947720295365203</v>
       </c>
     </row>
   </sheetData>
